--- a/Tests/MachineLearningTests/Data/eventsTestHelper.xlsx
+++ b/Tests/MachineLearningTests/Data/eventsTestHelper.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="16">
   <si>
     <t>FrontWall(.) Foscam</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>sec diff</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
@@ -105,7 +102,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -407,16 +404,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I36"/>
+  <dimension ref="B1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I35"/>
+      <selection activeCell="I2" sqref="I2:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -458,12 +456,12 @@
         <v>0</v>
       </c>
       <c r="H2" s="2">
-        <f>G2</f>
+        <f>TRUNC(G2)</f>
         <v>0</v>
       </c>
       <c r="I2" t="str">
-        <f>"""" &amp; C2 &amp; "|" &amp; D2 &amp; "=" &amp; E2 &amp; ""","</f>
-        <v>"FrontWall(.) Foscam|Motion=1",</v>
+        <f>"""" &amp; H2 &amp; "#" &amp; C2 &amp; "|" &amp; D2 &amp; "=" &amp; E2 &amp; ""","</f>
+        <v>"0#FrontWall(.) Foscam|Motion=1",</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -484,16 +482,16 @@
         <v>1.1574073869269341E-4</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G35" si="0">F3*24*60*60/30</f>
+        <f t="shared" ref="G3:G24" si="0">F3*24*60*60/30</f>
         <v>0.33333332743495703</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H35" si="1">G3</f>
-        <v>0.33333332743495703</v>
+        <f t="shared" ref="H3:H24" si="1">TRUNC(G3)</f>
+        <v>0</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I35" si="2">"""" &amp; C3 &amp; "|" &amp; D3 &amp; "=" &amp; E3 &amp; ""","</f>
-        <v>"Hall(0) Door|Door=0",</v>
+        <f t="shared" ref="I3:I24" si="2">"""" &amp; H3 &amp; "#" &amp; C3 &amp; "|" &amp; D3 &amp; "=" &amp; E3 &amp; ""","</f>
+        <v>"0#Hall(0) Door|Door=0",</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -519,11 +517,11 @@
       </c>
       <c r="H4" s="2">
         <f t="shared" si="1"/>
-        <v>0.43333332985639572</v>
+        <v>0</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="2"/>
-        <v>"Hall(0) Door|Door=1",</v>
+        <v>"0#Hall(0) Door|Door=1",</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -549,135 +547,199 @@
       </c>
       <c r="H5" s="2">
         <f t="shared" si="1"/>
-        <v>0.96666666213423014</v>
+        <v>0</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="2"/>
-        <v>"Corridor(1) Ceiling|Motion=1",</v>
+        <v>"0#Corridor(1) Ceiling|Motion=1",</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="H6" s="2"/>
+      <c r="B6" s="1">
+        <v>43134.710185185184</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>$B$2-B6</f>
+        <v>6.944444467080757E-4</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>2.000000006519258</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="I6" t="str">
         <f t="shared" si="2"/>
-        <v>"|=",</v>
+        <v>"2#Mobile(.) Sony Xperia|Connection=0",</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="2"/>
+      <c r="B7" s="1">
+        <v>43134.710138888891</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f>$B$2-B7</f>
+        <v>7.4074073927477002E-4</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>2.1333333291113377</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="I7" t="str">
         <f t="shared" si="2"/>
-        <v>"|=",</v>
+        <v>"2#Corridor(1) Ceiling|Motion=1",</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="H8" s="2"/>
+      <c r="B8" s="1">
+        <v>43134.710115740738</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f>$B$2-B8</f>
+        <v>7.638888928340748E-4</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>2.2000000113621354</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="I8" t="str">
         <f t="shared" si="2"/>
-        <v>"|=",</v>
+        <v>"2#Hall(0) Ceiling|Motion=1",</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
-        <v>43134.710185185184</v>
+        <v>43134.709861111114</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <f>$B$2-B9</f>
-        <v>6.944444467080757E-4</v>
+        <v>1.0185185165028088E-3</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>2.000000006519258</v>
+        <v>2.9333333275280893</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="1"/>
-        <v>2.000000006519258</v>
+        <v>2</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="2"/>
-        <v>"Mobile(.) Sony Xperia|Connection=0",</v>
+        <v>"2#Corridor(1) Ceiling|Motion=1",</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
-        <v>43134.710138888891</v>
+        <v>43134.709803240738</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <f>$B$2-B10</f>
-        <v>7.4074073927477002E-4</v>
+        <v>1.0763888931251131E-3</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>2.1333333291113377</v>
+        <v>3.1000000122003257</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="1"/>
-        <v>2.1333333291113377</v>
+        <v>3</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="2"/>
-        <v>"Corridor(1) Ceiling|Motion=1",</v>
+        <v>"3#Play(1) Door|Door=0",</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
-        <v>43134.710115740738</v>
+        <v>43134.709780092591</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
         <f>$B$2-B11</f>
-        <v>7.638888928340748E-4</v>
+        <v>1.0995370394084603E-3</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>2.2000000113621354</v>
+        <v>3.1666666734963655</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="1"/>
-        <v>2.2000000113621354</v>
+        <v>3</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="2"/>
-        <v>"Hall(0) Ceiling|Motion=1",</v>
+        <v>"3#Play(1) Door|Door=1",</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
-        <v>43134.709861111114</v>
+        <v>43134.709606481483</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
@@ -687,92 +749,114 @@
       </c>
       <c r="F12">
         <f>$B$2-B12</f>
-        <v>1.0185185165028088E-3</v>
+        <v>1.2731481474475004E-3</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>2.9333333275280893</v>
+        <v>3.6666666646488011</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="1"/>
-        <v>2.9333333275280893</v>
+        <v>3</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="2"/>
-        <v>"Corridor(1) Ceiling|Motion=1",</v>
+        <v>"3#Stairs(2) Pipe|Motion=1",</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="H13" s="2"/>
+      <c r="B13" s="1">
+        <v>43134.709409722222</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <f>$B$2-B13</f>
+        <v>1.4699074090458453E-3</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>4.2333333380520344</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="I13" t="str">
         <f t="shared" si="2"/>
-        <v>"|=",</v>
+        <v>"4#Corridor(1) Ceiling|Motion=1",</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
-        <v>43134.709803240738</v>
+        <v>43134.706921296296</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <f>$B$2-B14</f>
-        <v>1.0763888931251131E-3</v>
+        <v>3.9583333345944993E-3</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>3.1000000122003257</v>
+        <v>11.400000003632158</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="1"/>
-        <v>3.1000000122003257</v>
+        <v>11</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="2"/>
-        <v>"Play(1) Door|Door=0",</v>
+        <v>"11#Stairs(2) Pipe|Motion=1",</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
-        <v>43134.709780092591</v>
+        <v>43134.70648148148</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
         <f>$B$2-B15</f>
-        <v>1.0995370394084603E-3</v>
+        <v>4.3981481503578834E-3</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>3.1666666734963655</v>
+        <v>12.666666673030704</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="1"/>
-        <v>3.1666666734963655</v>
+        <v>12</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="2"/>
-        <v>"Play(1) Door|Door=1",</v>
+        <v>"12#Stairs(2) Pipe|Motion=1",</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
-        <v>43134.709606481483</v>
+        <v>43134.705995370372</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
@@ -785,73 +869,117 @@
       </c>
       <c r="F16">
         <f>$B$2-B16</f>
-        <v>1.2731481474475004E-3</v>
+        <v>4.8842592586879618E-3</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>3.6666666646488011</v>
+        <v>14.06666666502133</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="1"/>
-        <v>3.6666666646488011</v>
+        <v>14</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="2"/>
-        <v>"Stairs(2) Pipe|Motion=1",</v>
+        <v>"14#Stairs(2) Pipe|Motion=1",</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="H17" s="2"/>
+      <c r="B17" s="1">
+        <v>43134.705833333333</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f>$B$2-B17</f>
+        <v>5.0462962972233072E-3</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>14.533333336003125</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
       <c r="I17" t="str">
         <f t="shared" si="2"/>
-        <v>"|=",</v>
+        <v>"14#Play(1) Door|Door=0",</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
-        <v>43134.709409722222</v>
+        <v>43134.70579861111</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
         <f>$B$2-B18</f>
-        <v>1.4699074090458453E-3</v>
+        <v>5.0810185202863067E-3</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>4.2333333380520344</v>
+        <v>14.633333338424563</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="1"/>
-        <v>4.2333333380520344</v>
+        <v>14</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="2"/>
-        <v>"Corridor(1) Ceiling|Motion=1",</v>
+        <v>"14#Play(1) Door|Door=1",</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="H19" s="2"/>
+      <c r="B19" s="1">
+        <v>43134.705763888887</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f>$B$2-B19</f>
+        <v>5.1157407433493063E-3</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>14.733333340846002</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
       <c r="I19" t="str">
         <f t="shared" si="2"/>
-        <v>"|=",</v>
+        <v>"14#Corridor(1) Ceiling|Motion=1",</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
-        <v>43134.706921296296</v>
+        <v>43134.705636574072</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
@@ -861,35 +989,57 @@
       </c>
       <c r="F20">
         <f>$B$2-B20</f>
-        <v>3.9583333345944993E-3</v>
+        <v>5.2430555588216521E-3</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>11.400000003632158</v>
+        <v>15.100000009406358</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="1"/>
-        <v>11.400000003632158</v>
+        <v>15</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="2"/>
-        <v>"Stairs(2) Pipe|Motion=1",</v>
+        <v>"15#Corridor(1) Ceiling|Motion=1",</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="H21" s="2"/>
+      <c r="B21" s="1">
+        <v>43134.705601851849</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f>$B$2-B21</f>
+        <v>5.2777777818846516E-3</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>15.200000011827797</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
       <c r="I21" t="str">
         <f t="shared" si="2"/>
-        <v>"|=",</v>
+        <v>"15#Garage(0) Door|Door=0",</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
-        <v>43134.70648148148</v>
+        <v>43134.705497685187</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
@@ -899,35 +1049,57 @@
       </c>
       <c r="F22">
         <f>$B$2-B22</f>
-        <v>4.3981481503578834E-3</v>
+        <v>5.3819444437976927E-3</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>12.666666673030704</v>
+        <v>15.499999998137355</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="1"/>
-        <v>12.666666673030704</v>
+        <v>15</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="2"/>
-        <v>"Stairs(2) Pipe|Motion=1",</v>
+        <v>"15#Hall(0) Ceiling|Motion=1",</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="H23" s="2"/>
+      <c r="B23" s="1">
+        <v>43134.705127314817</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <f>$B$2-B23</f>
+        <v>5.7523148134350777E-3</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>16.566666662693024</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
       <c r="I23" t="str">
         <f t="shared" si="2"/>
-        <v>"|=",</v>
+        <v>"16#Hall(0) Ceiling|Motion=1",</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
-        <v>43134.705995370372</v>
+        <v>43134.70480324074</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
         <v>1</v>
@@ -937,287 +1109,23 @@
       </c>
       <c r="F24">
         <f>$B$2-B24</f>
-        <v>4.8842592586879618E-3</v>
+        <v>6.0763888905057684E-3</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
-        <v>14.06666666502133</v>
+        <v>17.500000004656613</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" si="1"/>
-        <v>14.06666666502133</v>
+        <v>17</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="2"/>
-        <v>"Stairs(2) Pipe|Motion=1",</v>
+        <v>"17#Corridor(1) Ceiling|Motion=1",</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="1">
-        <v>43134.705833333333</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <f>$B$2-B25</f>
-        <v>5.0462962972233072E-3</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="0"/>
-        <v>14.533333336003125</v>
-      </c>
-      <c r="H25" s="2">
-        <f t="shared" si="1"/>
-        <v>14.533333336003125</v>
-      </c>
-      <c r="I25" t="str">
-        <f t="shared" si="2"/>
-        <v>"Play(1) Door|Door=0",</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="1">
-        <v>43134.70579861111</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <f>$B$2-B26</f>
-        <v>5.0810185202863067E-3</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="0"/>
-        <v>14.633333338424563</v>
-      </c>
-      <c r="H26" s="2">
-        <f t="shared" si="1"/>
-        <v>14.633333338424563</v>
-      </c>
-      <c r="I26" t="str">
-        <f t="shared" si="2"/>
-        <v>"Play(1) Door|Door=1",</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="1">
-        <v>43134.705763888887</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <f>$B$2-B27</f>
-        <v>5.1157407433493063E-3</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="0"/>
-        <v>14.733333340846002</v>
-      </c>
-      <c r="H27" s="2">
-        <f t="shared" si="1"/>
-        <v>14.733333340846002</v>
-      </c>
-      <c r="I27" t="str">
-        <f t="shared" si="2"/>
-        <v>"Corridor(1) Ceiling|Motion=1",</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="H28" s="2"/>
-      <c r="I28" t="str">
-        <f t="shared" si="2"/>
-        <v>"|=",</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="1">
-        <v>43134.705636574072</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <f>$B$2-B29</f>
-        <v>5.2430555588216521E-3</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="0"/>
-        <v>15.100000009406358</v>
-      </c>
-      <c r="H29" s="2">
-        <f t="shared" si="1"/>
-        <v>15.100000009406358</v>
-      </c>
-      <c r="I29" t="str">
-        <f t="shared" si="2"/>
-        <v>"Corridor(1) Ceiling|Motion=1",</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="1">
-        <v>43134.705601851849</v>
-      </c>
-      <c r="C30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <f>$B$2-B30</f>
-        <v>5.2777777818846516E-3</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="0"/>
-        <v>15.200000011827797</v>
-      </c>
-      <c r="H30" s="2">
-        <f t="shared" si="1"/>
-        <v>15.200000011827797</v>
-      </c>
-      <c r="I30" t="str">
-        <f t="shared" si="2"/>
-        <v>"Garage(0) Door|Door=0",</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="1">
-        <v>43134.705497685187</v>
-      </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <f>$B$2-B31</f>
-        <v>5.3819444437976927E-3</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="0"/>
-        <v>15.499999998137355</v>
-      </c>
-      <c r="H31" s="2">
-        <f t="shared" si="1"/>
-        <v>15.499999998137355</v>
-      </c>
-      <c r="I31" t="str">
-        <f t="shared" si="2"/>
-        <v>"Hall(0) Ceiling|Motion=1",</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="H32" s="2"/>
-      <c r="I32" t="str">
-        <f t="shared" si="2"/>
-        <v>"|=",</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="1">
-        <v>43134.705127314817</v>
-      </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <f>$B$2-B33</f>
-        <v>5.7523148134350777E-3</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="0"/>
-        <v>16.566666662693024</v>
-      </c>
-      <c r="H33" s="2">
-        <f t="shared" si="1"/>
-        <v>16.566666662693024</v>
-      </c>
-      <c r="I33" t="str">
-        <f t="shared" si="2"/>
-        <v>"Hall(0) Ceiling|Motion=1",</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="H34" s="2"/>
-      <c r="I34" t="str">
-        <f t="shared" si="2"/>
-        <v>"|=",</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="1">
-        <v>43134.70480324074</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <f>$B$2-B35</f>
-        <v>6.0763888905057684E-3</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="0"/>
-        <v>17.500000004656613</v>
-      </c>
-      <c r="H35" s="2">
-        <f t="shared" si="1"/>
-        <v>17.500000004656613</v>
-      </c>
-      <c r="I35" t="str">
-        <f t="shared" si="2"/>
-        <v>"Corridor(1) Ceiling|Motion=1",</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
+      <c r="B25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
